--- a/analysis/results/Q1_czech/models/supplements_models_terminal_ileum.xlsx
+++ b/analysis/results/Q1_czech/models/supplements_models_terminal_ileum.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -53,37 +53,37 @@
     <t xml:space="preserve">pre_ltx vs healthy ASV terminal_ileum</t>
   </si>
   <si>
-    <t xml:space="preserve">0.923972602739726</t>
+    <t xml:space="preserve">0.948198198198198</t>
   </si>
   <si>
     <t xml:space="preserve">pre_ltx vs post_ltx ASV terminal_ileum</t>
   </si>
   <si>
-    <t xml:space="preserve">0.834265010351967</t>
+    <t xml:space="preserve">0.838643790849673</t>
   </si>
   <si>
     <t xml:space="preserve">post_ltx vs healthy ASV terminal_ileum</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910015882469724</t>
+    <t xml:space="preserve">0.904875463698993</t>
   </si>
   <si>
     <t xml:space="preserve">pre_ltx vs healthy genus terminal_ileum</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956849315068493</t>
+    <t xml:space="preserve">0.954954954954955</t>
   </si>
   <si>
     <t xml:space="preserve">pre_ltx vs post_ltx genus terminal_ileum</t>
   </si>
   <si>
-    <t xml:space="preserve">0.849378881987578</t>
+    <t xml:space="preserve">0.841503267973856</t>
   </si>
   <si>
     <t xml:space="preserve">post_ltx vs healthy genus terminal_ileum</t>
   </si>
   <si>
-    <t xml:space="preserve">0.963867381377804</t>
+    <t xml:space="preserve">0.967011128775835</t>
   </si>
   <si>
     <t xml:space="preserve">mtry</t>
@@ -113,12 +113,6 @@
     <t xml:space="preserve">n.minobsinnode</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999896480331263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.990993788819876</t>
-  </si>
-  <si>
     <t xml:space="preserve">alpha</t>
   </si>
   <si>
@@ -137,64 +131,31 @@
     <t xml:space="preserve">accuracy_no</t>
   </si>
   <si>
-    <t xml:space="preserve">0.997260273972603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.996621621621622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.998188405797101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98944099378882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.995098039215686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.973429951690821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.998238747553816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.995495495495496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947204968944099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.957516339869281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.888285024154589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985705777248362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980922098569157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.991512345679012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915557729941292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.81371635610766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.877357554099662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907632093933464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.808850931677019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887432995830852</t>
+    <t xml:space="preserve">0.997140522875817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979166666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905935347111818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.911036036036036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.858864379084967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.81809750927398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.802364864864865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.764093137254902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.844992050874404</t>
   </si>
 </sst>
 </file>
@@ -563,31 +524,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.86295238712265</v>
+        <v>0.911178824069449</v>
       </c>
       <c r="E2" t="n">
-        <v>0.774912946428572</v>
+        <v>0.845951704545455</v>
       </c>
       <c r="F2" t="n">
-        <v>0.945580070970696</v>
+        <v>0.966848544973545</v>
       </c>
       <c r="G2" t="n">
-        <v>0.776223776223776</v>
+        <v>0.885245901639344</v>
       </c>
       <c r="H2" t="n">
-        <v>0.765304750737137</v>
+        <v>0.819706380575946</v>
       </c>
       <c r="I2" t="n">
-        <v>0.667561683599419</v>
+        <v>0.741576086956522</v>
       </c>
       <c r="J2" t="n">
-        <v>0.862037037037037</v>
+        <v>0.904761904761905</v>
       </c>
     </row>
     <row r="3">
@@ -595,31 +556,31 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>0.676040552172218</v>
+        <v>0.676645049965186</v>
       </c>
       <c r="E3" t="n">
-        <v>0.594121272246272</v>
+        <v>0.584935064935065</v>
       </c>
       <c r="F3" t="n">
-        <v>0.772038740245262</v>
+        <v>0.787107963578552</v>
       </c>
       <c r="G3" t="n">
-        <v>0.706730769230769</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>0.66734079029149</v>
+        <v>0.775268653985059</v>
       </c>
       <c r="I3" t="n">
-        <v>0.593881578947368</v>
+        <v>0.732657358156028</v>
       </c>
       <c r="J3" t="n">
-        <v>0.753189189189189</v>
+        <v>0.834517045454546</v>
       </c>
     </row>
     <row r="4">
@@ -627,31 +588,31 @@
         <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>0.852485508228603</v>
+        <v>0.818081962991412</v>
       </c>
       <c r="E4" t="n">
-        <v>0.820275474987547</v>
+        <v>0.705211433531746</v>
       </c>
       <c r="F4" t="n">
-        <v>0.89569817166159</v>
+        <v>0.952470026417395</v>
       </c>
       <c r="G4" t="n">
-        <v>0.872037914691943</v>
+        <v>0.884892086330935</v>
       </c>
       <c r="H4" t="n">
-        <v>0.805315464060257</v>
+        <v>0.797879296079718</v>
       </c>
       <c r="I4" t="n">
-        <v>0.727537016973637</v>
+        <v>0.723358585858586</v>
       </c>
       <c r="J4" t="n">
-        <v>0.862704480796586</v>
+        <v>0.899519230769231</v>
       </c>
     </row>
     <row r="5">
@@ -659,31 +620,31 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>0.890818811163456</v>
+        <v>0.858007619034405</v>
       </c>
       <c r="E5" t="n">
-        <v>0.821660052910053</v>
+        <v>0.790835652442795</v>
       </c>
       <c r="F5" t="n">
-        <v>0.948241267660911</v>
+        <v>0.971177884615385</v>
       </c>
       <c r="G5" t="n">
-        <v>0.769230769230769</v>
+        <v>0.754098360655738</v>
       </c>
       <c r="H5" t="n">
-        <v>0.775946509198302</v>
+        <v>0.709872012045925</v>
       </c>
       <c r="I5" t="n">
-        <v>0.728059440559441</v>
+        <v>0.611024844720497</v>
       </c>
       <c r="J5" t="n">
-        <v>0.832697740112994</v>
+        <v>0.805519480519481</v>
       </c>
     </row>
     <row r="6">
@@ -691,31 +652,31 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>0.76976240182823</v>
+        <v>0.693448820926197</v>
       </c>
       <c r="E6" t="n">
-        <v>0.667567205965959</v>
+        <v>0.558962703962704</v>
       </c>
       <c r="F6" t="n">
-        <v>0.854494780581737</v>
+        <v>0.805496031746032</v>
       </c>
       <c r="G6" t="n">
-        <v>0.769230769230769</v>
+        <v>0.817460317460317</v>
       </c>
       <c r="H6" t="n">
-        <v>0.726853860845367</v>
+        <v>0.793204299433303</v>
       </c>
       <c r="I6" t="n">
-        <v>0.619330357142857</v>
+        <v>0.711724290780142</v>
       </c>
       <c r="J6" t="n">
-        <v>0.809016932434654</v>
+        <v>0.893702651515152</v>
       </c>
     </row>
     <row r="7">
@@ -723,31 +684,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>0.904011101563619</v>
+        <v>0.892481484144577</v>
       </c>
       <c r="E7" t="n">
-        <v>0.847137565433413</v>
+        <v>0.840615601503759</v>
       </c>
       <c r="F7" t="n">
-        <v>0.929176167582418</v>
+        <v>0.961679784179784</v>
       </c>
       <c r="G7" t="n">
-        <v>0.853080568720379</v>
+        <v>0.884892086330935</v>
       </c>
       <c r="H7" t="n">
-        <v>0.787238527503255</v>
+        <v>0.800214926337769</v>
       </c>
       <c r="I7" t="n">
-        <v>0.688065789473684</v>
+        <v>0.732386363636364</v>
       </c>
       <c r="J7" t="n">
-        <v>0.864735264735265</v>
+        <v>0.889493006993007</v>
       </c>
     </row>
   </sheetData>
@@ -807,7 +768,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -819,25 +780,25 @@
         <v>26</v>
       </c>
       <c r="F2" t="n">
-        <v>0.932679064217736</v>
+        <v>0.828775874423196</v>
       </c>
       <c r="G2" t="n">
-        <v>0.886863252488252</v>
+        <v>0.577133580705009</v>
       </c>
       <c r="H2" t="n">
-        <v>0.97808</v>
+        <v>0.983928571428571</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.858624171152222</v>
+        <v>0.767222849614154</v>
       </c>
       <c r="K2" t="n">
-        <v>0.748563869992441</v>
+        <v>0.621521739130435</v>
       </c>
       <c r="L2" t="n">
-        <v>0.944982142857143</v>
+        <v>0.872443181818182</v>
       </c>
     </row>
     <row r="3">
@@ -845,7 +806,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -857,25 +818,25 @@
         <v>26</v>
       </c>
       <c r="F3" t="n">
-        <v>0.870909081951275</v>
+        <v>0.65617241182852</v>
       </c>
       <c r="G3" t="n">
-        <v>0.829735484182099</v>
+        <v>0.577825916287455</v>
       </c>
       <c r="H3" t="n">
-        <v>0.923231847086661</v>
+        <v>0.734871368694898</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.848048995897097</v>
+        <v>0.774370464362066</v>
       </c>
       <c r="K3" t="n">
-        <v>0.785</v>
+        <v>0.696875</v>
       </c>
       <c r="L3" t="n">
-        <v>0.894874250499667</v>
+        <v>0.83840667311412</v>
       </c>
     </row>
     <row r="4">
@@ -883,37 +844,37 @@
         <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
       </c>
       <c r="F4" t="n">
-        <v>0.88792641814837</v>
+        <v>0.865041738225579</v>
       </c>
       <c r="G4" t="n">
-        <v>0.839237867092538</v>
+        <v>0.74676774989275</v>
       </c>
       <c r="H4" t="n">
-        <v>0.954012760293623</v>
+        <v>0.948141989589358</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.866501045306784</v>
+        <v>0.846914033878606</v>
       </c>
       <c r="K4" t="n">
-        <v>0.808116883116883</v>
+        <v>0.8</v>
       </c>
       <c r="L4" t="n">
-        <v>0.916632690882135</v>
+        <v>0.91696397941681</v>
       </c>
     </row>
     <row r="5">
@@ -921,37 +882,37 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
         <v>26</v>
       </c>
       <c r="F5" t="n">
-        <v>0.938872838421165</v>
+        <v>0.881700870227656</v>
       </c>
       <c r="G5" t="n">
-        <v>0.896699134199134</v>
+        <v>0.768876262626263</v>
       </c>
       <c r="H5" t="n">
-        <v>0.986024539317643</v>
+        <v>0.963179945054945</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.871561447868497</v>
+        <v>0.76055100696405</v>
       </c>
       <c r="K5" t="n">
-        <v>0.787884814942926</v>
+        <v>0.650489130434783</v>
       </c>
       <c r="L5" t="n">
-        <v>0.940580808080808</v>
+        <v>0.862175324675325</v>
       </c>
     </row>
     <row r="6">
@@ -959,7 +920,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -971,25 +932,25 @@
         <v>26</v>
       </c>
       <c r="F6" t="n">
-        <v>0.828965219359647</v>
+        <v>0.708234200949133</v>
       </c>
       <c r="G6" t="n">
-        <v>0.775837391774892</v>
+        <v>0.50291769041769</v>
       </c>
       <c r="H6" t="n">
-        <v>0.872597340930674</v>
+        <v>0.86294184981685</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.785379650705933</v>
+        <v>0.771692841499672</v>
       </c>
       <c r="K6" t="n">
-        <v>0.716595394736842</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="L6" t="n">
-        <v>0.836126582278481</v>
+        <v>0.839204545454546</v>
       </c>
     </row>
     <row r="7">
@@ -997,37 +958,37 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>0.887187071510937</v>
+        <v>0.852943467814581</v>
       </c>
       <c r="G7" t="n">
-        <v>0.840087392423033</v>
+        <v>0.719899673579109</v>
       </c>
       <c r="H7" t="n">
-        <v>0.931997858145293</v>
+        <v>0.927395470383275</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.843625765127662</v>
+        <v>0.815999876296444</v>
       </c>
       <c r="K7" t="n">
-        <v>0.777726244343891</v>
+        <v>0.711876208897486</v>
       </c>
       <c r="L7" t="n">
-        <v>0.901021929824561</v>
+        <v>0.934497460087083</v>
       </c>
     </row>
   </sheetData>
@@ -1093,37 +1054,37 @@
         <v>500</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>0.1</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
       </c>
       <c r="G2" t="n">
-        <v>0.95197309192526</v>
+        <v>0.885564212573141</v>
       </c>
       <c r="H2" t="n">
-        <v>0.924246557840308</v>
+        <v>0.717877757163471</v>
       </c>
       <c r="I2" t="n">
-        <v>0.979294804128548</v>
+        <v>0.998392857142857</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0.869867064348014</v>
+        <v>0.795204216073781</v>
       </c>
       <c r="L2" t="n">
-        <v>0.818710753532182</v>
+        <v>0.664464285714286</v>
       </c>
       <c r="M2" t="n">
-        <v>0.924225245653817</v>
+        <v>0.895508658008658</v>
       </c>
     </row>
     <row r="3">
@@ -1131,40 +1092,40 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0.1</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G3" t="n">
-        <v>0.871824809319464</v>
+        <v>0.68463227191734</v>
       </c>
       <c r="H3" t="n">
-        <v>0.829551006519092</v>
+        <v>0.56829594017094</v>
       </c>
       <c r="I3" t="n">
-        <v>0.920505852842809</v>
+        <v>0.775642507002801</v>
       </c>
       <c r="J3" t="n">
-        <v>0.990384615384615</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0.84693149915968</v>
+        <v>0.758181539438538</v>
       </c>
       <c r="L3" t="n">
-        <v>0.782767857142857</v>
+        <v>0.6921875</v>
       </c>
       <c r="M3" t="n">
-        <v>0.917455029980013</v>
+        <v>0.847098214285714</v>
       </c>
     </row>
     <row r="4">
@@ -1175,7 +1136,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0.1</v>
@@ -1187,25 +1148,25 @@
         <v>26</v>
       </c>
       <c r="G4" t="n">
-        <v>0.904361289650117</v>
+        <v>0.893030928527714</v>
       </c>
       <c r="H4" t="n">
-        <v>0.825414613076105</v>
+        <v>0.796090733590734</v>
       </c>
       <c r="I4" t="n">
-        <v>0.944890690575232</v>
+        <v>0.966783239283239</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0.992805755395683</v>
       </c>
       <c r="K4" t="n">
-        <v>0.86116137792418</v>
+        <v>0.875159042976887</v>
       </c>
       <c r="L4" t="n">
-        <v>0.810137085137085</v>
+        <v>0.80162962962963</v>
       </c>
       <c r="M4" t="n">
-        <v>0.903004978662873</v>
+        <v>0.943151306240929</v>
       </c>
     </row>
     <row r="5">
@@ -1213,7 +1174,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -1222,31 +1183,31 @@
         <v>0.1</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>
       </c>
       <c r="G5" t="n">
-        <v>0.971690953577765</v>
+        <v>0.925977596312418</v>
       </c>
       <c r="H5" t="n">
-        <v>0.948526077097506</v>
+        <v>0.898561789772727</v>
       </c>
       <c r="I5" t="n">
-        <v>0.99393842364532</v>
+        <v>0.990816326530612</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0.90362376766943</v>
+        <v>0.825463956333522</v>
       </c>
       <c r="L5" t="n">
-        <v>0.846469387755102</v>
+        <v>0.741576086956522</v>
       </c>
       <c r="M5" t="n">
-        <v>0.943951762523191</v>
+        <v>0.908116883116883</v>
       </c>
     </row>
     <row r="6">
@@ -1266,28 +1227,28 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G6" t="n">
-        <v>0.824732058155666</v>
+        <v>0.773564989356845</v>
       </c>
       <c r="H6" t="n">
-        <v>0.762722842088213</v>
+        <v>0.626022781792013</v>
       </c>
       <c r="I6" t="n">
-        <v>0.872283950617284</v>
+        <v>0.887249331550802</v>
       </c>
       <c r="J6" t="n">
-        <v>0.927884615384615</v>
+        <v>0.968253968253968</v>
       </c>
       <c r="K6" t="n">
-        <v>0.795871637737394</v>
+        <v>0.799947847505238</v>
       </c>
       <c r="L6" t="n">
-        <v>0.678421052631579</v>
+        <v>0.708211436170213</v>
       </c>
       <c r="M6" t="n">
-        <v>0.851268398268398</v>
+        <v>0.861505681818182</v>
       </c>
     </row>
     <row r="7">
@@ -1295,10 +1256,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>0.1</v>
@@ -1310,25 +1271,25 @@
         <v>26</v>
       </c>
       <c r="G7" t="n">
-        <v>0.920523508167386</v>
+        <v>0.911900496427754</v>
       </c>
       <c r="H7" t="n">
-        <v>0.883392486406327</v>
+        <v>0.829058075933076</v>
       </c>
       <c r="I7" t="n">
-        <v>0.966117487282355</v>
+        <v>0.984062319259688</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0.867739086266594</v>
+        <v>0.87221886239309</v>
       </c>
       <c r="L7" t="n">
-        <v>0.82674880763116</v>
+        <v>0.815572390572391</v>
       </c>
       <c r="M7" t="n">
-        <v>0.903982456140351</v>
+        <v>0.938824383164006</v>
       </c>
     </row>
   </sheetData>
@@ -1350,19 +1311,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -1377,10 +1338,10 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M1" t="s">
         <v>7</v>
@@ -1397,46 +1358,46 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0628213885714357</v>
+        <v>0.377876421863567</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" t="s">
-        <v>41</v>
+        <v>26</v>
+      </c>
+      <c r="F2" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G2" t="n">
-        <v>0.924102309548659</v>
+        <v>0.845495411499876</v>
       </c>
       <c r="H2" t="n">
-        <v>0.836777210884354</v>
+        <v>0.706169871794872</v>
       </c>
       <c r="I2" t="n">
-        <v>0.972424242424242</v>
+        <v>0.943771033653846</v>
       </c>
       <c r="J2" t="n">
-        <v>0.937062937062937</v>
+        <v>1</v>
       </c>
       <c r="K2" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="L2" t="n">
-        <v>0.939024390243902</v>
+      <c r="L2" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M2" t="n">
-        <v>0.859978371499821</v>
+        <v>0.794944475814041</v>
       </c>
       <c r="N2" t="n">
-        <v>0.776020408163265</v>
+        <v>0.699844720496894</v>
       </c>
       <c r="O2" t="n">
-        <v>0.917666897267382</v>
+        <v>0.870982142857143</v>
       </c>
     </row>
     <row r="3">
@@ -1447,43 +1408,43 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.10744967851851</v>
+        <v>102.552600238932</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="F3" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>0.734039411613899</v>
+        <v>0.565271560050972</v>
       </c>
       <c r="H3" t="n">
-        <v>0.617085213840533</v>
+        <v>0.371955128205128</v>
       </c>
       <c r="I3" t="n">
-        <v>0.833611765545798</v>
+        <v>0.821523268398269</v>
       </c>
       <c r="J3" t="n">
-        <v>0.725961538461538</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="K3" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="L3" t="n">
-        <v>0.524390243902439</v>
+      <c r="L3" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>0.697451208359436</v>
+        <v>0.787268824866809</v>
       </c>
       <c r="N3" t="n">
-        <v>0.596741071428571</v>
+        <v>0.711702127659575</v>
       </c>
       <c r="O3" t="n">
-        <v>0.805004385964912</v>
+        <v>0.856818181818182</v>
       </c>
     </row>
     <row r="4">
@@ -1491,10 +1452,10 @@
         <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0941553026140592</v>
+        <v>3.53622598083377</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -1502,35 +1463,35 @@
       <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
-        <v>26</v>
+      <c r="F4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G4" t="n">
-        <v>0.887814712206442</v>
+        <v>0.795158027266927</v>
       </c>
       <c r="H4" t="n">
-        <v>0.818223034686659</v>
+        <v>0.708035714285714</v>
       </c>
       <c r="I4" t="n">
-        <v>0.939520847263349</v>
+        <v>0.868812480921856</v>
       </c>
       <c r="J4" t="n">
-        <v>0.962085308056872</v>
+        <v>0.877697841726619</v>
       </c>
       <c r="K4" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="L4" t="n">
-        <v>0.986111111111111</v>
+      <c r="L4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M4" t="n">
-        <v>0.834669305938598</v>
+        <v>0.751825225278758</v>
       </c>
       <c r="N4" t="n">
-        <v>0.751606726606727</v>
+        <v>0.664691489361702</v>
       </c>
       <c r="O4" t="n">
-        <v>0.909340480831709</v>
+        <v>0.825126995645864</v>
       </c>
     </row>
     <row r="5">
@@ -1538,46 +1499,46 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.135702773439659</v>
+        <v>8.23973517491055</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
+        <v>26</v>
+      </c>
+      <c r="F5" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G5" t="n">
-        <v>0.938617730687867</v>
+        <v>0.850916755202469</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8965</v>
+        <v>0.744074074074074</v>
       </c>
       <c r="I5" t="n">
-        <v>0.979394461859979</v>
+        <v>0.982954545454545</v>
       </c>
       <c r="J5" t="n">
-        <v>0.986013986013986</v>
+        <v>0.80327868852459</v>
       </c>
       <c r="K5" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
+      <c r="L5" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M5" t="n">
-        <v>0.866304486079282</v>
+        <v>0.780534537925842</v>
       </c>
       <c r="N5" t="n">
-        <v>0.801650943396226</v>
+        <v>0.673188405797101</v>
       </c>
       <c r="O5" t="n">
-        <v>0.935884353741497</v>
+        <v>0.933958333333333</v>
       </c>
     </row>
     <row r="6">
@@ -1585,46 +1546,46 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0865213855054639</v>
+        <v>130.617895782552</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" t="s">
-        <v>49</v>
+        <v>38</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G6" t="n">
-        <v>0.73722093770636</v>
+        <v>0.608442897125024</v>
       </c>
       <c r="H6" t="n">
-        <v>0.653552320075757</v>
+        <v>0.491592702169625</v>
       </c>
       <c r="I6" t="n">
-        <v>0.812123745819398</v>
+        <v>0.740278563348416</v>
       </c>
       <c r="J6" t="n">
-        <v>0.822115384615385</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="K6" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="L6" t="n">
-        <v>0.731707317073171</v>
+      <c r="L6" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M6" t="n">
-        <v>0.718699399079812</v>
+        <v>0.793014611834601</v>
       </c>
       <c r="N6" t="n">
-        <v>0.619861111111111</v>
+        <v>0.735096153846154</v>
       </c>
       <c r="O6" t="n">
-        <v>0.796284727930298</v>
+        <v>0.882326555023923</v>
       </c>
     </row>
     <row r="7">
@@ -1632,46 +1593,46 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="C7" t="n">
-        <v>0.135286028285979</v>
+        <v>0.116680396154342</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>52</v>
+        <v>39</v>
+      </c>
+      <c r="F7" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="G7" t="n">
-        <v>0.857125238419762</v>
+        <v>0.780666126729693</v>
       </c>
       <c r="H7" t="n">
-        <v>0.801465036886516</v>
+        <v>0.546875</v>
       </c>
       <c r="I7" t="n">
-        <v>0.89393956043956</v>
+        <v>0.871453962527286</v>
       </c>
       <c r="J7" t="n">
-        <v>0.909952606635071</v>
+        <v>0.784172661870504</v>
       </c>
       <c r="K7" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="L7" t="n">
-        <v>0.958333333333333</v>
+      <c r="L7" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M7" t="n">
-        <v>0.792492542526918</v>
+        <v>0.702171382244144</v>
       </c>
       <c r="N7" t="n">
-        <v>0.720599547511312</v>
+        <v>0.390591755319149</v>
       </c>
       <c r="O7" t="n">
-        <v>0.855864197530864</v>
+        <v>0.839749637155298</v>
       </c>
     </row>
   </sheetData>
@@ -1725,31 +1686,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>0.828821576743759</v>
+        <v>0.699011786824287</v>
       </c>
       <c r="E2" t="n">
-        <v>0.699043956043956</v>
+        <v>0.520145089285714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.93241253591954</v>
+        <v>0.874448832417582</v>
       </c>
       <c r="G2" t="n">
-        <v>0.699300699300699</v>
+        <v>0.622950819672131</v>
       </c>
       <c r="H2" t="n">
-        <v>0.666580987809641</v>
+        <v>0.595386787125918</v>
       </c>
       <c r="I2" t="n">
-        <v>0.559056603773585</v>
+        <v>0.488509316770186</v>
       </c>
       <c r="J2" t="n">
-        <v>0.754925925925926</v>
+        <v>0.706980519480519</v>
       </c>
     </row>
     <row r="3">
@@ -1757,31 +1718,31 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D3" t="n">
-        <v>0.665626979544435</v>
+        <v>0.666542929676414</v>
       </c>
       <c r="E3" t="n">
-        <v>0.582879817853493</v>
+        <v>0.574146591454284</v>
       </c>
       <c r="F3" t="n">
-        <v>0.735797299762817</v>
+        <v>0.829876373626374</v>
       </c>
       <c r="G3" t="n">
-        <v>0.677884615384615</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="H3" t="n">
-        <v>0.681445461894662</v>
+        <v>0.795674673404237</v>
       </c>
       <c r="I3" t="n">
-        <v>0.619330357142857</v>
+        <v>0.711702127659575</v>
       </c>
       <c r="J3" t="n">
-        <v>0.741626415722851</v>
+        <v>0.882326555023923</v>
       </c>
     </row>
     <row r="4">
@@ -1792,28 +1753,28 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>0.824173140590477</v>
+        <v>0.704079408442671</v>
       </c>
       <c r="E4" t="n">
-        <v>0.74263891430441</v>
+        <v>0.601046365914787</v>
       </c>
       <c r="F4" t="n">
-        <v>0.909323583743842</v>
+        <v>0.791141358641359</v>
       </c>
       <c r="G4" t="n">
-        <v>0.85781990521327</v>
+        <v>0.81294964028777</v>
       </c>
       <c r="H4" t="n">
-        <v>0.767225634195619</v>
+        <v>0.710862801631067</v>
       </c>
       <c r="I4" t="n">
-        <v>0.685133287764867</v>
+        <v>0.602351398601399</v>
       </c>
       <c r="J4" t="n">
-        <v>0.86820987654321</v>
+        <v>0.798301886792453</v>
       </c>
     </row>
     <row r="5">
@@ -1821,31 +1782,31 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D5" t="n">
-        <v>0.818786794265407</v>
+        <v>0.672460296812975</v>
       </c>
       <c r="E5" t="n">
-        <v>0.764973958333333</v>
+        <v>0.456428571428571</v>
       </c>
       <c r="F5" t="n">
-        <v>0.873738620689655</v>
+        <v>0.961553178963893</v>
       </c>
       <c r="G5" t="n">
-        <v>0.762237762237762</v>
+        <v>0.672131147540984</v>
       </c>
       <c r="H5" t="n">
-        <v>0.704576254368319</v>
+        <v>0.650532655750047</v>
       </c>
       <c r="I5" t="n">
-        <v>0.612115384615385</v>
+        <v>0.565217391304348</v>
       </c>
       <c r="J5" t="n">
-        <v>0.791836734693877</v>
+        <v>0.791017316017316</v>
       </c>
     </row>
     <row r="6">
@@ -1853,31 +1814,31 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D6" t="n">
-        <v>0.718261925015855</v>
+        <v>0.596714797328485</v>
       </c>
       <c r="E6" t="n">
-        <v>0.660445690938013</v>
+        <v>0.468371040723982</v>
       </c>
       <c r="F6" t="n">
-        <v>0.791765164183643</v>
+        <v>0.689945058695059</v>
       </c>
       <c r="G6" t="n">
-        <v>0.740384615384615</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="H6" t="n">
-        <v>0.718949510772962</v>
+        <v>0.798718083894456</v>
       </c>
       <c r="I6" t="n">
-        <v>0.644642857142857</v>
+        <v>0.728191489361702</v>
       </c>
       <c r="J6" t="n">
-        <v>0.756607594936709</v>
+        <v>0.882326555023923</v>
       </c>
     </row>
     <row r="7">
@@ -1885,31 +1846,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D7" t="n">
-        <v>0.800987555073082</v>
+        <v>0.710243491677758</v>
       </c>
       <c r="E7" t="n">
-        <v>0.733536842338745</v>
+        <v>0.570912397589227</v>
       </c>
       <c r="F7" t="n">
-        <v>0.886455586080586</v>
+        <v>0.796462673611111</v>
       </c>
       <c r="G7" t="n">
-        <v>0.815165876777251</v>
+        <v>0.798561151079137</v>
       </c>
       <c r="H7" t="n">
-        <v>0.746534514121412</v>
+        <v>0.713874845143111</v>
       </c>
       <c r="I7" t="n">
-        <v>0.616673786739576</v>
+        <v>0.621879370629371</v>
       </c>
       <c r="J7" t="n">
-        <v>0.808933933933934</v>
+        <v>0.813801886792453</v>
       </c>
     </row>
   </sheetData>
@@ -1969,37 +1930,37 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
       </c>
       <c r="F2" t="n">
-        <v>0.974901753469324</v>
+        <v>0.916963897544255</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9501443001443</v>
+        <v>0.778030303030303</v>
       </c>
       <c r="H2" t="n">
-        <v>0.992942470091485</v>
+        <v>0.984214743589744</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.895429910433862</v>
+        <v>0.818816111424807</v>
       </c>
       <c r="K2" t="n">
-        <v>0.843857142857143</v>
+        <v>0.660271739130435</v>
       </c>
       <c r="L2" t="n">
-        <v>0.930790960451977</v>
+        <v>0.904761904761905</v>
       </c>
     </row>
     <row r="3">
@@ -2007,37 +1968,37 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
       </c>
       <c r="F3" t="n">
-        <v>0.901005002152655</v>
+        <v>0.794219609338388</v>
       </c>
       <c r="G3" t="n">
-        <v>0.850494051030398</v>
+        <v>0.656230628346013</v>
       </c>
       <c r="H3" t="n">
-        <v>0.953455146690783</v>
+        <v>0.887417515082956</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.844107708286256</v>
+        <v>0.798688946365318</v>
       </c>
       <c r="K3" t="n">
-        <v>0.785</v>
+        <v>0.725061374795417</v>
       </c>
       <c r="L3" t="n">
-        <v>0.892480519480519</v>
+        <v>0.867344497607656</v>
       </c>
     </row>
     <row r="4">
@@ -2045,37 +2006,37 @@
         <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
       </c>
       <c r="F4" t="n">
-        <v>0.924825292556944</v>
+        <v>0.92283070645979</v>
       </c>
       <c r="G4" t="n">
-        <v>0.877513641203088</v>
+        <v>0.851619303635433</v>
       </c>
       <c r="H4" t="n">
-        <v>0.964134759543305</v>
+        <v>0.966380286380286</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.875495044768682</v>
+        <v>0.8354697030522</v>
       </c>
       <c r="K4" t="n">
-        <v>0.813208556149733</v>
+        <v>0.80787643207856</v>
       </c>
       <c r="L4" t="n">
-        <v>0.917276315789474</v>
+        <v>0.877648766328012</v>
       </c>
     </row>
     <row r="5">
@@ -2083,37 +2044,37 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
         <v>26</v>
       </c>
       <c r="F5" t="n">
-        <v>0.966505556198602</v>
+        <v>0.921598715438001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.944966231684982</v>
+        <v>0.850736531986532</v>
       </c>
       <c r="H5" t="n">
-        <v>0.986334884145229</v>
+        <v>0.975529827315542</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.902696014230895</v>
+        <v>0.809370882740448</v>
       </c>
       <c r="K5" t="n">
-        <v>0.844138418079096</v>
+        <v>0.707880434782609</v>
       </c>
       <c r="L5" t="n">
-        <v>0.939963312368973</v>
+        <v>0.872443181818182</v>
       </c>
     </row>
     <row r="6">
@@ -2121,37 +2082,37 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
       </c>
       <c r="F6" t="n">
-        <v>0.860457061457264</v>
+        <v>0.749460213922884</v>
       </c>
       <c r="G6" t="n">
-        <v>0.824759039027241</v>
+        <v>0.633629191321499</v>
       </c>
       <c r="H6" t="n">
-        <v>0.903551731078905</v>
+        <v>0.845217490842491</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.807012369202742</v>
+        <v>0.77781128679085</v>
       </c>
       <c r="K6" t="n">
-        <v>0.758048986486487</v>
+        <v>0.724700797872341</v>
       </c>
       <c r="L6" t="n">
-        <v>0.857142857142857</v>
+        <v>0.867344497607656</v>
       </c>
     </row>
     <row r="7">
@@ -2159,37 +2120,37 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>0.915830343643471</v>
+        <v>0.869197349967296</v>
       </c>
       <c r="G7" t="n">
-        <v>0.847224070623725</v>
+        <v>0.783448940732207</v>
       </c>
       <c r="H7" t="n">
-        <v>0.982012875008266</v>
+        <v>0.941647387700019</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.867836454247129</v>
+        <v>0.825581905270785</v>
       </c>
       <c r="K7" t="n">
-        <v>0.804090909090909</v>
+        <v>0.764158607350097</v>
       </c>
       <c r="L7" t="n">
-        <v>0.94988628979857</v>
+        <v>0.907910839160839</v>
       </c>
     </row>
   </sheetData>
@@ -2252,10 +2213,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0.1</v>
@@ -2267,25 +2228,25 @@
         <v>26</v>
       </c>
       <c r="G2" t="n">
-        <v>0.969406506465473</v>
+        <v>0.911147248089212</v>
       </c>
       <c r="H2" t="n">
-        <v>0.94656498015873</v>
+        <v>0.7744140625</v>
       </c>
       <c r="I2" t="n">
-        <v>0.994774060616803</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0.913862050663823</v>
+        <v>0.827687747035573</v>
       </c>
       <c r="L2" t="n">
-        <v>0.825510204081633</v>
+        <v>0.631304347826087</v>
       </c>
       <c r="M2" t="n">
-        <v>0.963988095238095</v>
+        <v>0.941666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -2293,7 +2254,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -2308,25 +2269,25 @@
         <v>26</v>
       </c>
       <c r="G3" t="n">
-        <v>0.881876565916432</v>
+        <v>0.715499211630433</v>
       </c>
       <c r="H3" t="n">
-        <v>0.825002392609607</v>
+        <v>0.587478632478633</v>
       </c>
       <c r="I3" t="n">
-        <v>0.933188912536739</v>
+        <v>0.78601950976951</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0.992063492063492</v>
       </c>
       <c r="K3" t="n">
-        <v>0.850581266318275</v>
+        <v>0.798843215388568</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7753125</v>
+        <v>0.711724290780142</v>
       </c>
       <c r="M3" t="n">
-        <v>0.913182878081279</v>
+        <v>0.890296052631579</v>
       </c>
     </row>
     <row r="4">
@@ -2334,40 +2295,40 @@
         <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0.1</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
       </c>
       <c r="G4" t="n">
-        <v>0.915263558405758</v>
+        <v>0.945932956259096</v>
       </c>
       <c r="H4" t="n">
-        <v>0.84908059443618</v>
+        <v>0.905908978174603</v>
       </c>
       <c r="I4" t="n">
-        <v>0.959198045208165</v>
+        <v>0.995197127433969</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0.844045684882165</v>
+        <v>0.88581354939424</v>
       </c>
       <c r="L4" t="n">
-        <v>0.777922077922078</v>
+        <v>0.796166666666667</v>
       </c>
       <c r="M4" t="n">
-        <v>0.902666666666667</v>
+        <v>0.95344702467344</v>
       </c>
     </row>
     <row r="5">
@@ -2375,10 +2336,10 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0.1</v>
@@ -2390,25 +2351,25 @@
         <v>26</v>
       </c>
       <c r="G5" t="n">
-        <v>0.970406771906901</v>
+        <v>0.933700756089149</v>
       </c>
       <c r="H5" t="n">
-        <v>0.942050137362637</v>
+        <v>0.907946428571429</v>
       </c>
       <c r="I5" t="n">
-        <v>0.991259852216749</v>
+        <v>0.998269230769231</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0.908484818960377</v>
+        <v>0.842135798983625</v>
       </c>
       <c r="L5" t="n">
-        <v>0.840324858757062</v>
+        <v>0.76656314699793</v>
       </c>
       <c r="M5" t="n">
-        <v>0.957520786092215</v>
+        <v>0.942640692640693</v>
       </c>
     </row>
     <row r="6">
@@ -2416,40 +2377,40 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>0.1</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
         <v>26</v>
       </c>
       <c r="G6" t="n">
-        <v>0.83477263500039</v>
+        <v>0.735329542048999</v>
       </c>
       <c r="H6" t="n">
-        <v>0.784142790941328</v>
+        <v>0.654437869822485</v>
       </c>
       <c r="I6" t="n">
-        <v>0.88927523908114</v>
+        <v>0.837299342814049</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0.992063492063492</v>
       </c>
       <c r="K6" t="n">
-        <v>0.803910795887645</v>
+        <v>0.800708159421765</v>
       </c>
       <c r="L6" t="n">
-        <v>0.762648026315789</v>
+        <v>0.732657358156028</v>
       </c>
       <c r="M6" t="n">
-        <v>0.854220779220779</v>
+        <v>0.860526315789474</v>
       </c>
     </row>
     <row r="7">
@@ -2457,40 +2418,40 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0.1</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
       </c>
       <c r="G7" t="n">
-        <v>0.947052414032614</v>
+        <v>0.923793401314391</v>
       </c>
       <c r="H7" t="n">
-        <v>0.907213202022891</v>
+        <v>0.868741599462366</v>
       </c>
       <c r="I7" t="n">
-        <v>0.98294473373464</v>
+        <v>0.97133031442242</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0.899626246356242</v>
+        <v>0.89537067576921</v>
       </c>
       <c r="L7" t="n">
-        <v>0.84749000999001</v>
+        <v>0.818868471953578</v>
       </c>
       <c r="M7" t="n">
-        <v>0.937357862248213</v>
+        <v>0.961538461538462</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/results/Q1_czech/models/supplements_models_terminal_ileum.xlsx
+++ b/analysis/results/Q1_czech/models/supplements_models_terminal_ileum.xlsx
@@ -626,25 +626,25 @@
         <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>0.858007619034405</v>
+        <v>0.869889023304929</v>
       </c>
       <c r="E5" t="n">
-        <v>0.790835652442795</v>
+        <v>0.701979166666667</v>
       </c>
       <c r="F5" t="n">
-        <v>0.971177884615385</v>
+        <v>0.988287545787546</v>
       </c>
       <c r="G5" t="n">
         <v>0.754098360655738</v>
       </c>
       <c r="H5" t="n">
-        <v>0.709872012045925</v>
+        <v>0.736013850082278</v>
       </c>
       <c r="I5" t="n">
-        <v>0.611024844720497</v>
+        <v>0.543465909090909</v>
       </c>
       <c r="J5" t="n">
-        <v>0.805519480519481</v>
+        <v>0.916666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -658,25 +658,25 @@
         <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>0.693448820926197</v>
+        <v>0.695307746138916</v>
       </c>
       <c r="E6" t="n">
-        <v>0.558962703962704</v>
+        <v>0.5037109375</v>
       </c>
       <c r="F6" t="n">
-        <v>0.805496031746032</v>
+        <v>0.855836397058823</v>
       </c>
       <c r="G6" t="n">
         <v>0.817460317460317</v>
       </c>
       <c r="H6" t="n">
-        <v>0.793204299433303</v>
+        <v>0.798638963318722</v>
       </c>
       <c r="I6" t="n">
-        <v>0.711724290780142</v>
+        <v>0.712619047619048</v>
       </c>
       <c r="J6" t="n">
-        <v>0.893702651515152</v>
+        <v>0.892518501387604</v>
       </c>
     </row>
     <row r="7">
@@ -690,25 +690,25 @@
         <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>0.892481484144577</v>
+        <v>0.902896869363742</v>
       </c>
       <c r="E7" t="n">
-        <v>0.840615601503759</v>
+        <v>0.792243515550807</v>
       </c>
       <c r="F7" t="n">
-        <v>0.961679784179784</v>
+        <v>0.980288476874003</v>
       </c>
       <c r="G7" t="n">
         <v>0.884892086330935</v>
       </c>
       <c r="H7" t="n">
-        <v>0.800214926337769</v>
+        <v>0.808852894523378</v>
       </c>
       <c r="I7" t="n">
-        <v>0.732386363636364</v>
+        <v>0.686856617647059</v>
       </c>
       <c r="J7" t="n">
-        <v>0.889493006993007</v>
+        <v>0.928571428571429</v>
       </c>
     </row>
   </sheetData>
@@ -894,25 +894,25 @@
         <v>26</v>
       </c>
       <c r="F5" t="n">
-        <v>0.881700870227656</v>
+        <v>0.904177456951268</v>
       </c>
       <c r="G5" t="n">
-        <v>0.768876262626263</v>
+        <v>0.724060314685315</v>
       </c>
       <c r="H5" t="n">
-        <v>0.963179945054945</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.76055100696405</v>
+        <v>0.778608156861878</v>
       </c>
       <c r="K5" t="n">
-        <v>0.650489130434783</v>
+        <v>0.590909090909091</v>
       </c>
       <c r="L5" t="n">
-        <v>0.862175324675325</v>
+        <v>0.95125</v>
       </c>
     </row>
     <row r="6">
@@ -932,25 +932,25 @@
         <v>26</v>
       </c>
       <c r="F6" t="n">
-        <v>0.708234200949133</v>
+        <v>0.732063928503125</v>
       </c>
       <c r="G6" t="n">
-        <v>0.50291769041769</v>
+        <v>0.554109619487909</v>
       </c>
       <c r="H6" t="n">
-        <v>0.86294184981685</v>
+        <v>0.883243611828883</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.771692841499672</v>
+        <v>0.803992855317442</v>
       </c>
       <c r="K6" t="n">
-        <v>0.708333333333333</v>
+        <v>0.712619047619048</v>
       </c>
       <c r="L6" t="n">
-        <v>0.839204545454546</v>
+        <v>0.8953125</v>
       </c>
     </row>
     <row r="7">
@@ -970,25 +970,25 @@
         <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>0.852943467814581</v>
+        <v>0.873411963792913</v>
       </c>
       <c r="G7" t="n">
-        <v>0.719899673579109</v>
+        <v>0.718519555157486</v>
       </c>
       <c r="H7" t="n">
-        <v>0.927395470383275</v>
+        <v>0.984246309246309</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.815999876296444</v>
+        <v>0.834968223133417</v>
       </c>
       <c r="K7" t="n">
-        <v>0.711876208897486</v>
+        <v>0.690909090909091</v>
       </c>
       <c r="L7" t="n">
-        <v>0.934497460087083</v>
+        <v>0.940617647058823</v>
       </c>
     </row>
   </sheetData>
@@ -1189,25 +1189,25 @@
         <v>26</v>
       </c>
       <c r="G5" t="n">
-        <v>0.925977596312418</v>
+        <v>0.931203718594648</v>
       </c>
       <c r="H5" t="n">
-        <v>0.898561789772727</v>
+        <v>0.795961538461538</v>
       </c>
       <c r="I5" t="n">
-        <v>0.990816326530612</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0.825463956333522</v>
+        <v>0.832364878899632</v>
       </c>
       <c r="L5" t="n">
-        <v>0.741576086956522</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="M5" t="n">
-        <v>0.908116883116883</v>
+        <v>0.956521739130435</v>
       </c>
     </row>
     <row r="6">
@@ -1230,25 +1230,25 @@
         <v>26</v>
       </c>
       <c r="G6" t="n">
-        <v>0.773564989356845</v>
+        <v>0.761792051675954</v>
       </c>
       <c r="H6" t="n">
-        <v>0.626022781792013</v>
+        <v>0.596003625576796</v>
       </c>
       <c r="I6" t="n">
-        <v>0.887249331550802</v>
+        <v>0.89939251639833</v>
       </c>
       <c r="J6" t="n">
         <v>0.968253968253968</v>
       </c>
       <c r="K6" t="n">
-        <v>0.799947847505238</v>
+        <v>0.81074596718527</v>
       </c>
       <c r="L6" t="n">
-        <v>0.708211436170213</v>
+        <v>0.719072295247725</v>
       </c>
       <c r="M6" t="n">
-        <v>0.861505681818182</v>
+        <v>0.898020833333333</v>
       </c>
     </row>
     <row r="7">
@@ -1271,25 +1271,25 @@
         <v>26</v>
       </c>
       <c r="G7" t="n">
-        <v>0.911900496427754</v>
+        <v>0.924898752605324</v>
       </c>
       <c r="H7" t="n">
-        <v>0.829058075933076</v>
+        <v>0.822665153133903</v>
       </c>
       <c r="I7" t="n">
-        <v>0.984062319259688</v>
+        <v>0.991181876531684</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0.87221886239309</v>
+        <v>0.877331842784944</v>
       </c>
       <c r="L7" t="n">
-        <v>0.815572390572391</v>
+        <v>0.772140330188679</v>
       </c>
       <c r="M7" t="n">
-        <v>0.938824383164006</v>
+        <v>0.961538461538462</v>
       </c>
     </row>
   </sheetData>
